--- a/HR_Data/LWP2_0009_lab_timing.xlsx
+++ b/HR_Data/LWP2_0009_lab_timing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CDRIVE\CTPC\LIVEWELL WEARTECH WEARABILITY ALL\WEARTECH compiled participant timings with participant info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CDRIVE\CTPC\LIVEWELL WEARTECH WEARABILITY ALL\WEARTECH compiled participant timings with participant info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -356,14 +356,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -689,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +717,7 @@
       <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -749,7 +748,7 @@
       <c r="F3" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>0.64358796296296295</v>
       </c>
       <c r="I3" t="s">
@@ -772,7 +771,7 @@
       <c r="F4" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>0.64385416666666673</v>
       </c>
       <c r="I4" t="s">
@@ -795,7 +794,7 @@
       <c r="F5" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>0.6441203703703704</v>
       </c>
       <c r="I5" t="s">
@@ -809,7 +808,7 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>0.63296296296296295</v>
       </c>
       <c r="C6" t="s">
@@ -821,7 +820,7 @@
       <c r="F6" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>0.64438657407407407</v>
       </c>
       <c r="I6" t="s">
@@ -835,8 +834,8 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4">
-        <v>0.6333333333333333</v>
+      <c r="B7" s="6">
+        <v>0.63368055555555558</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -847,16 +846,16 @@
       <c r="F7" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>0.64465277777777785</v>
       </c>
       <c r="I7" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="8" t="s">
         <v>77</v>
       </c>
     </row>
@@ -864,7 +863,7 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>0.64097222222222217</v>
       </c>
       <c r="C8" t="s">
@@ -876,10 +875,10 @@
       <c r="F8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>0.64493055555555556</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K8" t="s">
@@ -896,8 +895,8 @@
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4">
-        <v>0.64166666666666672</v>
+      <c r="B9" s="6">
+        <v>0.64188657407407412</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -911,10 +910,10 @@
       <c r="F9" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>0.64520833333333327</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>79</v>
       </c>
       <c r="K9" t="s">
@@ -928,7 +927,7 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>0.6430555555555556</v>
       </c>
       <c r="C10" t="s">
@@ -940,7 +939,7 @@
       <c r="F10" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>0.64547453703703705</v>
       </c>
       <c r="I10" t="s">
@@ -957,8 +956,8 @@
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4">
-        <v>0.65138888888888891</v>
+      <c r="B11" s="6">
+        <v>0.65130787037037041</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -969,7 +968,7 @@
       <c r="F11" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>0.64572916666666669</v>
       </c>
       <c r="I11" t="s">
@@ -983,8 +982,8 @@
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4">
-        <v>0.65208333333333335</v>
+      <c r="B12" s="6">
+        <v>0.65216435185185184</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -998,7 +997,7 @@
       <c r="F12" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>0.6460069444444444</v>
       </c>
     </row>
@@ -1006,8 +1005,8 @@
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4">
-        <v>0.65277777777777779</v>
+      <c r="B13" s="6">
+        <v>0.65305555555555561</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -1018,7 +1017,7 @@
       <c r="F13" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>0.64627314814814818</v>
       </c>
       <c r="I13" t="s">
@@ -1029,8 +1028,8 @@
       <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="4">
-        <v>0.66041666666666665</v>
+      <c r="B14" s="6">
+        <v>0.66052083333333333</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -1041,7 +1040,7 @@
       <c r="F14" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>0.64653935185185185</v>
       </c>
       <c r="I14" t="s">
@@ -1055,8 +1054,8 @@
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="4">
-        <v>0.66111111111111109</v>
+      <c r="B15" s="6">
+        <v>0.66145833333333337</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1070,7 +1069,7 @@
       <c r="F15" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>0.64681712962962956</v>
       </c>
       <c r="I15" t="s">
@@ -1084,8 +1083,8 @@
       <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="4">
-        <v>0.66319444444444442</v>
+      <c r="B16" s="6">
+        <v>0.66315972222222219</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1096,7 +1095,7 @@
       <c r="F16" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>0.64708333333333334</v>
       </c>
     </row>
@@ -1104,8 +1103,8 @@
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="4">
-        <v>0.66597222222222219</v>
+      <c r="B17" s="6">
+        <v>0.66548611111111111</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1116,7 +1115,7 @@
       <c r="F17" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>0.64734953703703701</v>
       </c>
     </row>
@@ -1124,8 +1123,8 @@
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="4">
-        <v>0.67291666666666661</v>
+      <c r="B18" s="6">
+        <v>0.67282407407407396</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
@@ -1136,7 +1135,7 @@
       <c r="F18" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>0.64761574074074069</v>
       </c>
     </row>
@@ -1144,7 +1143,7 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="6">
         <v>0.67350694444444448</v>
       </c>
       <c r="C19" t="s">
@@ -1159,7 +1158,7 @@
       <c r="F19" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>0.64789351851851851</v>
       </c>
     </row>
@@ -1167,8 +1166,8 @@
       <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="4">
-        <v>0.67638888888888893</v>
+      <c r="B20" s="6">
+        <v>0.67391203703703706</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
@@ -1179,7 +1178,7 @@
       <c r="F20" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>0.64815972222222229</v>
       </c>
     </row>
@@ -1187,8 +1186,8 @@
       <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="4">
-        <v>0.67708333333333337</v>
+      <c r="B21" s="6">
+        <v>0.67651620370370369</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
@@ -1199,7 +1198,7 @@
       <c r="F21" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>0.64842592592592596</v>
       </c>
     </row>
@@ -1207,8 +1206,8 @@
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="4">
-        <v>0.6777777777777777</v>
+      <c r="B22" s="6">
+        <v>0.67800925925925926</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -1219,7 +1218,7 @@
       <c r="F22" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>0.64869212962962963</v>
       </c>
     </row>
@@ -1227,8 +1226,8 @@
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="4">
-        <v>0.67847222222222225</v>
+      <c r="B23" s="6">
+        <v>0.67871527777777774</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -1242,7 +1241,7 @@
       <c r="F23" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <v>0.64896990740740745</v>
       </c>
     </row>
@@ -1250,8 +1249,8 @@
       <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="4">
-        <v>0.6791666666666667</v>
+      <c r="B24" s="6">
+        <v>0.67913194444444447</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
@@ -1262,7 +1261,7 @@
       <c r="F24" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="4">
         <v>0.64923611111111112</v>
       </c>
     </row>
@@ -1270,7 +1269,7 @@
       <c r="A25" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>0.68116898148148142</v>
       </c>
       <c r="E25">
@@ -1279,7 +1278,7 @@
       <c r="F25" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="4">
         <v>0.6495023148148148</v>
       </c>
     </row>
@@ -1290,7 +1289,7 @@
       <c r="F26" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <v>0.64976851851851858</v>
       </c>
     </row>
@@ -1304,7 +1303,7 @@
       <c r="F27" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>0.65003472222222225</v>
       </c>
     </row>
@@ -1315,7 +1314,7 @@
       <c r="F28" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <v>0.65031249999999996</v>
       </c>
     </row>
@@ -1326,7 +1325,7 @@
       <c r="F29" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <v>0.65057870370370374</v>
       </c>
     </row>
@@ -1337,12 +1336,12 @@
       <c r="F30" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>0.65085648148148145</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="7" t="s">
         <v>57</v>
       </c>
     </row>

--- a/HR_Data/LWP2_0009_lab_timing.xlsx
+++ b/HR_Data/LWP2_0009_lab_timing.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CDRIVE\CTPC\LIVEWELL WEARTECH WEARABILITY ALL\WEARTECH compiled participant timings with participant info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophie\Documents\MATLAB\HeartRate\HR_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
   <si>
     <t>Event</t>
   </si>
@@ -301,12 +301,15 @@
   </si>
   <si>
     <t>A004CD</t>
+  </si>
+  <si>
+    <t>Task/Event number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -356,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -372,6 +375,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,662 +690,750 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
-    <col min="6" max="6" width="33.5703125" customWidth="1"/>
-    <col min="7" max="7" width="35" customWidth="1"/>
-    <col min="9" max="9" width="36.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="2" max="3" width="28.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" customWidth="1"/>
+    <col min="8" max="8" width="35" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="36.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.64358796296296295</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4"/>
+      <c r="K3" t="s">
         <v>70</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>0.64385416666666673</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4"/>
+      <c r="K4" t="s">
         <v>71</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="3">
         <v>42664</v>
       </c>
-      <c r="E5">
+      <c r="C5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>0.6441203703703704</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="5"/>
+      <c r="K5" t="s">
         <v>73</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="6">
         <v>0.63296296296296295</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>0.64438657407407407</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="4"/>
+      <c r="K6" t="s">
         <v>74</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="6">
         <v>0.63368055555555558</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>0.64465277777777785</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="4"/>
+      <c r="K7" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="6">
         <v>0.64097222222222217</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="9">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>0.64493055555555556</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="I8" s="4"/>
+      <c r="L8" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>87</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>88</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="6">
         <v>0.64188657407407412</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>45</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>7</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>0.64520833333333327</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="I9" s="4"/>
+      <c r="L9" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>88</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="6">
         <v>0.6430555555555556</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="9">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>0.64547453703703705</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="4"/>
+      <c r="K10" t="s">
         <v>80</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>85</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="6">
         <v>0.65130787037037041</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="9">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>9</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>0.64572916666666669</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="4"/>
+      <c r="K11" t="s">
         <v>81</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="6">
         <v>0.65216435185185184</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="9">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>46</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>10</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>0.6460069444444444</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="6">
         <v>0.65305555555555561</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="9">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>11</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>0.64627314814814818</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="4"/>
+      <c r="K13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="6">
         <v>0.66052083333333333</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="9">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>12</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>0.64653935185185185</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="4"/>
+      <c r="K14" t="s">
         <v>77</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="6">
         <v>0.66145833333333337</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="9">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>47</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>13</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>0.64681712962962956</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="4"/>
+      <c r="K15" t="s">
         <v>76</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="6">
         <v>0.66315972222222219</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="9">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>14</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>0.64708333333333334</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="6">
         <v>0.66548611111111111</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="9">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>15</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>0.64734953703703701</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="6">
         <v>0.67282407407407396</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="9">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>16</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>0.64761574074074069</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="6">
         <v>0.67350694444444448</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="9">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
         <v>68</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>48</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>17</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>0.64789351851851851</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="6">
         <v>0.67391203703703706</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="9">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
         <v>31</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>18</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>0.64815972222222229</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="6">
         <v>0.67651620370370369</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="9">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
         <v>32</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>19</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>0.64842592592592596</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="6">
         <v>0.67800925925925926</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="9">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>20</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>0.64869212962962963</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="6">
         <v>0.67871527777777774</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="9">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
         <v>28</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>49</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>21</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
         <v>0.64896990740740745</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="6">
         <v>0.67913194444444447</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="9">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
         <v>33</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>22</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="4">
         <v>0.64923611111111112</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="6">
         <v>0.68116898148148142</v>
       </c>
-      <c r="E25">
+      <c r="C25" s="9"/>
+      <c r="F25">
         <v>23</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>0.6495023148148148</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E26">
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F26">
         <v>24</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H26" s="4">
         <v>0.64976851851851858</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>25</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="5">
+      <c r="H27" s="5">
         <v>0.65003472222222225</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E28">
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F28">
         <v>26</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>0.65031249999999996</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E29">
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F29">
         <v>27</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H29" s="4">
         <v>0.65057870370370374</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E30">
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F30">
         <v>28</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="5">
+      <c r="H30" s="5">
         <v>0.65085648148148145</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="F31" s="7" t="s">
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="G31" s="7" t="s">
         <v>57</v>
       </c>
     </row>
